--- a/实验报告/相关单据.xlsx
+++ b/实验报告/相关单据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixiang/Documents/GitHub/drug_management_system/实验报告/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1101D50-35C8-8645-9553-8884361A3E3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F10B4A4-4A10-5149-8976-A789E1BBB6F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12560" yWindow="2280" windowWidth="28040" windowHeight="17440" xr2:uid="{EB86CE9A-5407-6540-9C1C-3BA39C255832}"/>
+    <workbookView xWindow="13460" yWindow="1960" windowWidth="28040" windowHeight="17440" xr2:uid="{EB86CE9A-5407-6540-9C1C-3BA39C255832}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>需求单</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>采购单序号</t>
+  </si>
+  <si>
+    <t>出库单序号</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,6 +625,9 @@
       <c r="G6" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>10</v>
       </c>
@@ -673,6 +679,12 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I10" s="1" t="s">

--- a/实验报告/相关单据.xlsx
+++ b/实验报告/相关单据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixiang/Documents/GitHub/drug_management_system/实验报告/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F10B4A4-4A10-5149-8976-A789E1BBB6F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F19E09F-85A6-D04D-BD58-798CF2A2A42A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="1960" windowWidth="28040" windowHeight="17440" xr2:uid="{EB86CE9A-5407-6540-9C1C-3BA39C255832}"/>
+    <workbookView xWindow="12200" yWindow="1940" windowWidth="28040" windowHeight="17440" xr2:uid="{EB86CE9A-5407-6540-9C1C-3BA39C255832}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>需求单</t>
   </si>
@@ -69,33 +69,15 @@
     <t>均单价</t>
   </si>
   <si>
-    <t>出库时间</t>
-  </si>
-  <si>
-    <t>缺货时间</t>
-  </si>
-  <si>
-    <t>采购发起时间</t>
-  </si>
-  <si>
     <t>编号</t>
   </si>
   <si>
-    <t>入库时间</t>
-  </si>
-  <si>
     <t>供应商地址</t>
   </si>
   <si>
     <t>最晚到达时间</t>
   </si>
   <si>
-    <t>出库责任人</t>
-  </si>
-  <si>
-    <t>入库责任人</t>
-  </si>
-  <si>
     <t>需求方编号</t>
   </si>
   <si>
@@ -114,12 +96,6 @@
     <t>序号</t>
   </si>
   <si>
-    <t>缺货原因</t>
-  </si>
-  <si>
-    <t>缺货号</t>
-  </si>
-  <si>
     <t>需求单号</t>
   </si>
   <si>
@@ -142,6 +118,12 @@
   </si>
   <si>
     <t>出库单序号</t>
+  </si>
+  <si>
+    <t>下单人编号</t>
+  </si>
+  <si>
+    <t>审核状态</t>
   </si>
 </sst>
 </file>
@@ -506,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624A7FC1-4E99-9C48-BE80-605BD8542405}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,29 +504,33 @@
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -556,56 +542,69 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -620,54 +619,58 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -682,61 +685,74 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -751,34 +767,39 @@
         <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
@@ -789,20 +810,24 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -817,21 +842,29 @@
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
